--- a/reports/time_score.xlsx
+++ b/reports/time_score.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e.boltachev\Scripts\ASR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e.boltachev\Scripts\ASR\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="10155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="10155" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="tab" sheetId="1" r:id="rId1"/>
-    <sheet name="ASR_06_30" sheetId="2" r:id="rId2"/>
-    <sheet name="ASR_10_30" sheetId="3" r:id="rId3"/>
-    <sheet name="ASR_22_16" sheetId="4" r:id="rId4"/>
-    <sheet name="ASR_43_54" sheetId="5" r:id="rId5"/>
+    <sheet name="comparison" sheetId="1" r:id="rId1"/>
+    <sheet name="parallel_using" sheetId="6" r:id="rId2"/>
+    <sheet name="ASR_06_30" sheetId="2" r:id="rId3"/>
+    <sheet name="ASR_10_30" sheetId="3" r:id="rId4"/>
+    <sheet name="ASR_22_16" sheetId="4" r:id="rId5"/>
+    <sheet name="ASR_43_54" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Изображение</t>
   </si>
@@ -108,12 +109,21 @@
   <si>
     <t>%</t>
   </si>
+  <si>
+    <t>Экз</t>
+  </si>
+  <si>
+    <t>Время видео - 06:30</t>
+  </si>
+  <si>
+    <t>Время видео - 10:30</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +164,38 @@
       <family val="3"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -163,7 +205,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -186,11 +228,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -198,12 +253,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -226,291 +275,50 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="45" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="45" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="45" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="45" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="45" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -602,6 +410,1945 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>06:30</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.14016130636731633"/>
+                  <c:y val="-0.27452252252252252"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>parallel_using!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>parallel_using!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>mm:ss</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.7353395061728396E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4710648148148148E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2569444444444447E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CA00-4500-BC23-10678FF25441}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="410364264"/>
+        <c:axId val="410370168"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="410364264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3.1"/>
+          <c:min val="0.9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="410370168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="410370168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2.0000000000000005E-3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="mm:ss" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="410364264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>10</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>:30</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.14016130636731633"/>
+                  <c:y val="-0.27452252252252252"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>parallel_using!$A$7:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>parallel_using!$B$7:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>mm:ss</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.1041666666666666E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7106481481481478E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1435185185185186E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0BC0-470D-8E37-5911FC7B248F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="410364264"/>
+        <c:axId val="410370168"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="410364264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3.1"/>
+          <c:min val="0.9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="410370168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="410370168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="4.000000000000001E-3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="mm:ss" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="410364264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -872,8 +2619,8 @@
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,162 +2632,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="6">
         <v>4.5138888888888893E-3</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="6">
         <v>1.6782407407407406E-3</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <f>A4/B4</f>
         <v>2.6896551724137936</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="8">
         <v>2.3032407407407407E-3</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <f>A4/D4</f>
         <v>1.9597989949748746</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="8">
         <f>D4-B4</f>
         <v>6.2500000000000012E-4</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="10">
         <f>F4/B4</f>
         <v>0.37241379310344841</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="6">
         <v>7.2916666666666659E-3</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="6">
         <v>2.8124999999999995E-3</v>
       </c>
-      <c r="C5" s="9">
-        <f t="shared" ref="C5:E7" si="0">A5/B5</f>
+      <c r="C5" s="7">
+        <f t="shared" ref="C5:C7" si="0">A5/B5</f>
         <v>2.592592592592593</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <v>3.7962962962962963E-3</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <f t="shared" ref="E5:E7" si="1">A5/D5</f>
         <v>1.9207317073170729</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="8">
         <f t="shared" ref="F5:F7" si="2">D5-B5</f>
         <v>9.8379629629629685E-4</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="10">
         <f t="shared" ref="G5:G7" si="3">F5/B5</f>
         <v>0.34979423868312781</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="6">
         <v>1.5462962962962963E-2</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="6">
         <v>5.6134259259259271E-3</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <f t="shared" si="0"/>
         <v>2.7546391752577315</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <v>5.8101851851851856E-3</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <f t="shared" si="1"/>
         <v>2.6613545816733066</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="8">
         <f t="shared" si="2"/>
         <v>1.967592592592585E-4</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="10">
         <f t="shared" si="3"/>
         <v>3.5051546391752432E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="6">
         <v>3.0486111111111113E-2</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="6">
         <v>1.1412037037037038E-2</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="7">
         <f t="shared" si="0"/>
         <v>2.6713995943204867</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <v>1.2650462962962962E-2</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <f t="shared" si="1"/>
         <v>2.4098810612991768</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="8">
         <f t="shared" si="2"/>
         <v>1.2384259259259241E-3</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="10">
         <f t="shared" si="3"/>
         <v>0.10851926977687609</v>
       </c>
@@ -1054,37 +2801,37 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
       <formula>$D$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
       <formula>$D$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
       <formula>$D$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
       <formula>$B$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>$B$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>$B$6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1100,6 +2847,159 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:Q20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="14" customWidth="1"/>
+    <col min="3" max="5" width="9.28515625" style="14" hidden="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="13">
+        <v>1</v>
+      </c>
+      <c r="D1" s="13">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="21">
+        <v>3</v>
+      </c>
+      <c r="B2" s="15">
+        <f>SUM(C2:E2)/3</f>
+        <v>2.7353395061728396E-3</v>
+      </c>
+      <c r="C2" s="20">
+        <v>2.7314814814814819E-3</v>
+      </c>
+      <c r="D2" s="15">
+        <v>2.7314814814814819E-3</v>
+      </c>
+      <c r="E2" s="15">
+        <v>2.7430555555555559E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="21">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15">
+        <f>SUM(C3:E3)/2</f>
+        <v>2.4710648148148148E-3</v>
+      </c>
+      <c r="C3" s="20">
+        <v>2.4652777777777776E-3</v>
+      </c>
+      <c r="D3" s="15">
+        <v>2.4768518518518516E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="21">
+        <v>1</v>
+      </c>
+      <c r="B4" s="15">
+        <f>SUM(C4:E4)/1</f>
+        <v>2.2569444444444447E-3</v>
+      </c>
+      <c r="C4" s="20">
+        <v>2.2569444444444447E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+      <c r="D6" s="13">
+        <v>2</v>
+      </c>
+      <c r="E6" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="23">
+        <v>3</v>
+      </c>
+      <c r="B7" s="19">
+        <f>SUM(C7:E7)/3</f>
+        <v>5.1041666666666666E-3</v>
+      </c>
+      <c r="C7" s="22">
+        <v>5.0925925925925921E-3</v>
+      </c>
+      <c r="D7" s="16">
+        <v>5.0694444444444441E-3</v>
+      </c>
+      <c r="E7" s="16">
+        <v>5.1504629629629635E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="23">
+        <v>2</v>
+      </c>
+      <c r="B8" s="19">
+        <f>SUM(C8:E8)/2</f>
+        <v>4.7106481481481478E-3</v>
+      </c>
+      <c r="C8" s="22">
+        <v>4.7106481481481478E-3</v>
+      </c>
+      <c r="D8" s="16">
+        <v>4.7106481481481478E-3</v>
+      </c>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="23">
+        <v>1</v>
+      </c>
+      <c r="B9" s="19">
+        <f>SUM(C9:E9)/1</f>
+        <v>4.1435185185185186E-3</v>
+      </c>
+      <c r="C9" s="22">
+        <v>4.1435185185185186E-3</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1129,41 +3029,6 @@
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1183,22 +3048,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1207,6 +3072,41 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
